--- a/data/outputs/management_elsevier/67.xlsx
+++ b/data/outputs/management_elsevier/67.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS22"/>
+  <dimension ref="A1:BU22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -947,6 +957,12 @@
           <t>2-s2.0-84938860507</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>609</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1172,6 +1188,12 @@
           <t>2-s2.0-84938841262</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1490</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1391,6 +1413,12 @@
           <t>2-s2.0-84930623278</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>687</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1616,6 +1644,12 @@
           <t>2-s2.0-84947296804</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1097</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1837,6 +1871,12 @@
           <t>2-s2.0-84926181648</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1058</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2058,6 +2098,12 @@
           <t>2-s2.0-84928139672</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1333</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2267,6 +2313,12 @@
           <t>2-s2.0-84928128403</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1668</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2484,6 +2536,12 @@
           <t>2-s2.0-84928597831</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>482</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2701,6 +2759,12 @@
           <t>2-s2.0-84923211502</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>639</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2910,6 +2974,12 @@
           <t>2-s2.0-84923101589</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1713</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3127,6 +3197,12 @@
           <t>2-s2.0-84924612073</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>741</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3346,6 +3422,12 @@
           <t>2-s2.0-84936941562</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>781</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3571,6 +3653,12 @@
           <t>2-s2.0-84937900307</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>675</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3784,6 +3872,12 @@
           <t>2-s2.0-84922430146</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>2856</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4009,6 +4103,12 @@
           <t>2-s2.0-84911936411</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1017</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4230,6 +4330,12 @@
           <t>2-s2.0-84907359817</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1161</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4455,6 +4561,12 @@
           <t>2-s2.0-84904910923</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2426</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4680,6 +4792,12 @@
           <t>2-s2.0-84907325164</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1119</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4903,6 +5021,12 @@
           <t>2-s2.0-84907821263</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1609</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5120,6 +5244,12 @@
           <t>2-s2.0-84908193562</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>3376</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5337,6 +5467,12 @@
           <t>2-s2.0-84908181045</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1311</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
